--- a/resource/pretestArrange/FreeTestArrangement.xlsx
+++ b/resource/pretestArrange/FreeTestArrangement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Free Test Type</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Free Reading</t>
   </si>
   <si>
-    <t>Free Writing</t>
-  </si>
-  <si>
     <t>Free Speaking</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>LI SHIRONG</t>
+  </si>
+  <si>
+    <t>249627</t>
+  </si>
+  <si>
+    <t>Free Writting</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -147,8 +150,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -474,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -497,91 +500,91 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="6">
         <v>43252</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="7">
         <v>43162</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>249627</v>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6">
         <v>43252</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7">
         <v>43162</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="6">
         <v>43252</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7">
         <v>43162</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="6">
         <v>43252</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7">
         <v>43162</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
